--- a/src/main/resources/data_output/ParallelMemoryUsage.xlsx
+++ b/src/main/resources/data_output/ParallelMemoryUsage.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FFFC63-F5E1-4A8B-B973-FB5D5FFE632B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Memory Usage" r:id="rId3" sheetId="1"/>
+    <sheet name="Memory Usage" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -53,11 +61,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,7 +85,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -84,67 +100,446 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="21.109375"/>
+    <col min="3" max="3" customWidth="true" width="19.88671875"/>
+    <col min="4" max="4" customWidth="true" width="20.88671875"/>
+    <col min="5" max="5" customWidth="true" width="21.33203125"/>
+    <col min="6" max="6" customWidth="true" width="21.44140625"/>
+    <col min="7" max="7" customWidth="true" width="19.77734375"/>
+    <col min="8" max="8" customWidth="true" width="19.88671875"/>
+    <col min="9" max="9" customWidth="true" width="18.77734375"/>
+    <col min="10" max="10" customWidth="true" width="19.109375"/>
+    <col min="11" max="11" customWidth="true" width="19.5546875"/>
+    <col min="12" max="12" customWidth="true" width="20.0"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="C2" t="n">
-        <v>3995464.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5327152.0</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>8878608</v>
+      </c>
+      <c r="B2">
+        <v>16596488</v>
+      </c>
+      <c r="C2">
+        <v>3995464</v>
+      </c>
+      <c r="D2">
+        <v>5327152</v>
+      </c>
+      <c r="E2">
+        <v>19.161888122558594</v>
+      </c>
+      <c r="F2">
+        <v>17.911727905273438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4.4062347412109375</v>
+      </c>
+      <c r="B3">
+        <v>2.4096603393554688</v>
+      </c>
+      <c r="C3">
+        <v>1.2700576782226563</v>
+      </c>
+      <c r="D3">
+        <v>2.3284378051757813</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.7721E7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.7771776E7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="n">
+        <v>3709416.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4335096.0</v>
+      </c>
+      <c r="C4">
+        <v>1.727752685546875</v>
+      </c>
+      <c r="D4">
+        <v>2.3945770263671875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="n">
+        <v>1832400.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2458216.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/data_output/ParallelMemoryUsage.xlsx
+++ b/src/main/resources/data_output/ParallelMemoryUsage.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -538,6 +538,14 @@
         <v>2458216.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="C6" t="n">
+        <v>1294912.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2450768.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/data_output/ParallelMemoryUsage.xlsx
+++ b/src/main/resources/data_output/ParallelMemoryUsage.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FFFC63-F5E1-4A8B-B973-FB5D5FFE632B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E306036-2DFC-4B4B-BD29-37333E9E3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory Usage" sheetId="1" r:id="rId1"/>
+    <sheet name="Execution Times" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Graph BFS 10000 (bytes)</t>
   </si>
@@ -56,6 +57,42 @@
   </si>
   <si>
     <t>Tree DFS 50000 (bytes)</t>
+  </si>
+  <si>
+    <t>Graph BFS 10000 (s)</t>
+  </si>
+  <si>
+    <t>Graph DFS 10000 (s)</t>
+  </si>
+  <si>
+    <t>Graph BFS 1000 (s)</t>
+  </si>
+  <si>
+    <t>Graph DFS 1000 (s)</t>
+  </si>
+  <si>
+    <t>Graph BFS 50000 (s)</t>
+  </si>
+  <si>
+    <t>Graph DFS 50000 (s)</t>
+  </si>
+  <si>
+    <t>Tree BFS 10000 (s)</t>
+  </si>
+  <si>
+    <t>Tree DFS 10000 (s)</t>
+  </si>
+  <si>
+    <t>Tree BFS 1000 (s)</t>
+  </si>
+  <si>
+    <t>Tree DFS 1000 (s)</t>
+  </si>
+  <si>
+    <t>Tree BFS 50000 (s)</t>
+  </si>
+  <si>
+    <t>Tree DFS 50000 (s)</t>
   </si>
 </sst>
 </file>
@@ -417,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F6" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,78 +513,109 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>8878608</v>
-      </c>
-      <c r="B2">
-        <v>16596488</v>
-      </c>
-      <c r="C2">
-        <v>3995464</v>
-      </c>
-      <c r="D2">
-        <v>5327152</v>
-      </c>
-      <c r="E2">
-        <v>19.161888122558594</v>
-      </c>
-      <c r="F2">
-        <v>17.911727905273438</v>
+    <row r="2">
+      <c r="G2" t="n">
+        <v>3067096.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3697080.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1331752.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1331736.0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4.4062347412109375</v>
-      </c>
-      <c r="B3">
-        <v>2.4096603393554688</v>
-      </c>
-      <c r="C3">
-        <v>1.2700576782226563</v>
-      </c>
-      <c r="D3">
-        <v>2.3284378051757813</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.7721E7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.7771776E7</v>
+    <row r="3">
+      <c r="G3" t="n">
+        <v>1285760.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3833584.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2663464.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1331736.0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="n">
-        <v>3709416.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4335096.0</v>
-      </c>
-      <c r="C4">
-        <v>1.727752685546875</v>
-      </c>
-      <c r="D4">
-        <v>2.3945770263671875</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="n">
-        <v>1832400.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2458216.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="n">
-        <v>1294912.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2450768.0</v>
+    <row r="4">
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1331736.0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2663432</v>
+      </c>
+      <c r="B2">
+        <v>2663432</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/data_output/ParallelMemoryUsage.xlsx
+++ b/src/main/resources/data_output/ParallelMemoryUsage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E306036-2DFC-4B4B-BD29-37333E9E3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2C3127-D01E-49D1-B65E-D81FD395C9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory Usage" sheetId="1" r:id="rId1"/>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A2:F6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,40 +513,56 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="G2" t="n">
-        <v>3067096.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3697080.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1331752.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1331736.0</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3297344</v>
+      </c>
+      <c r="B2">
+        <v>4407080</v>
+      </c>
+      <c r="C2">
+        <v>2663464</v>
+      </c>
+      <c r="D2">
+        <v>1331736</v>
+      </c>
+      <c r="E2">
+        <v>24374560</v>
+      </c>
+      <c r="F2">
+        <v>19236440</v>
+      </c>
+      <c r="G2">
+        <v>3067096</v>
+      </c>
+      <c r="H2">
+        <v>3697080</v>
+      </c>
+      <c r="I2">
+        <v>1331752</v>
+      </c>
+      <c r="J2">
+        <v>1331736</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3329328.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7052056.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="G3" t="n">
-        <v>1285760.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3833584.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2663464.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1331736.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1331736.0</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1285760</v>
+      </c>
+      <c r="H3">
+        <v>3833584</v>
+      </c>
+      <c r="I3">
+        <v>2663464</v>
+      </c>
+      <c r="J3">
+        <v>1331736</v>
       </c>
     </row>
   </sheetData>
@@ -608,11 +624,11 @@
       <c r="B2">
         <v>2663432</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/ParallelMemoryUsage.xlsx
+++ b/src/main/resources/data_output/ParallelMemoryUsage.xlsx
@@ -552,6 +552,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="n">
+        <v>3329304.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1997600.0</v>
+      </c>
       <c r="G3">
         <v>1285760</v>
       </c>

--- a/src/main/resources/data_output/ParallelMemoryUsage.xlsx
+++ b/src/main/resources/data_output/ParallelMemoryUsage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
@@ -62,6 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6454,7 +6455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
@@ -6462,17 +6463,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="21.109375"/>
+    <col min="3" max="3" customWidth="true" width="19.88671875"/>
+    <col min="4" max="4" customWidth="true" width="20.88671875"/>
+    <col min="5" max="5" customWidth="true" width="21.33203125"/>
+    <col min="6" max="6" customWidth="true" width="21.44140625"/>
+    <col min="7" max="7" customWidth="true" width="19.77734375"/>
+    <col min="8" max="8" customWidth="true" width="19.88671875"/>
+    <col min="9" max="9" customWidth="true" width="18.77734375"/>
+    <col min="10" max="10" customWidth="true" width="19.109375"/>
+    <col min="11" max="11" customWidth="true" width="19.5546875"/>
+    <col min="12" max="12" customWidth="true" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -6891,6 +6892,28 @@
       </c>
       <c r="L11" s="2">
         <v>4857744</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="n">
+        <v>1285360.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2505376.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7324496.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3682472.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1997600.0</v>
       </c>
     </row>
   </sheetData>
